--- a/GenshinFinalRev.xlsx
+++ b/GenshinFinalRev.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
   <si>
     <t>Version</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Avg Revenue/Day</t>
+  </si>
+  <si>
+    <t>Featured 5-Star Gender</t>
   </si>
   <si>
     <t>Welcome to Tevyat</t>
@@ -428,9 +431,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -463,6 +463,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
@@ -730,6 +733,7 @@
     <col customWidth="1" min="4" max="4" width="18.5"/>
     <col customWidth="1" min="5" max="5" width="42.0"/>
     <col customWidth="1" min="10" max="10" width="14.88"/>
+    <col customWidth="1" min="11" max="11" width="19.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,23 +767,25 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>0.0</v>
@@ -787,33 +793,35 @@
       <c r="G2" s="1">
         <v>0.0</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>3.0632752E7</v>
       </c>
       <c r="I2" s="1">
         <v>25.0</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f t="shared" ref="J2:J40" si="1">DIVIDE(H2,I2)</f>
         <v>1225310.08</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>1.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5">
         <v>44115.0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -821,33 +829,35 @@
       <c r="G3" s="1">
         <v>0.0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>2.275008E7</v>
       </c>
       <c r="I3" s="1">
         <v>22.0</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" si="1"/>
         <v>1034094.545</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>1.1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5">
         <v>44146.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -855,33 +865,35 @@
       <c r="G4" s="1">
         <v>0.0</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>1.3443619E7</v>
       </c>
       <c r="I4" s="1">
         <v>20.0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>672180.95</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>1.1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
         <v>43842.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1">
         <v>0.0</v>
@@ -889,33 +901,35 @@
       <c r="G5" s="1">
         <v>0.0</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="3">
         <v>1.6264892E7</v>
       </c>
       <c r="I5" s="1">
         <v>22.0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>739313.2727</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>1.2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7">
+        <v>23</v>
+      </c>
+      <c r="D6" s="6">
         <v>44531.0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
         <v>0.0</v>
@@ -923,33 +937,35 @@
       <c r="G6" s="1">
         <v>0.0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>1.1816107E7</v>
       </c>
       <c r="I6" s="1">
         <v>21.0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>562671.7619</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>1.2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="7">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
         <v>44229.0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1">
         <v>0.0</v>
@@ -957,33 +973,35 @@
       <c r="G7" s="1">
         <v>0.0</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>1.5669918E7</v>
       </c>
       <c r="I7" s="1">
         <v>21.0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>746186.5714</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>1.3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
         <v>44257.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1">
         <v>0.0</v>
@@ -991,33 +1009,35 @@
       <c r="G8" s="1">
         <v>0.0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>1.3145115E7</v>
       </c>
       <c r="I8" s="1">
         <v>15.0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>876341</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>1.3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="7">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6">
         <v>44230.0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>0.0</v>
@@ -1025,33 +1045,35 @@
       <c r="G9" s="1">
         <v>0.0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>9505798.0</v>
       </c>
       <c r="I9" s="1">
         <v>13.0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>731215.2308</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>1.3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
         <v>44258.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1">
         <v>0.0</v>
@@ -1059,33 +1081,35 @@
       <c r="G10" s="1">
         <v>0.0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>1.2481634E7</v>
       </c>
       <c r="I10" s="1">
         <v>14.0</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>891545.2857</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>1.4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="7">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6">
         <v>44351.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1">
         <v>1.0</v>
@@ -1093,33 +1117,35 @@
       <c r="G11" s="1">
         <v>0.0</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1.6614209E7</v>
       </c>
       <c r="I11" s="1">
         <v>21.0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>791152.8095</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
         <v>1.4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="7">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6">
         <v>44381.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
         <v>1.0</v>
@@ -1127,33 +1153,35 @@
       <c r="G12" s="1">
         <v>0.0</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>6965445.0</v>
       </c>
       <c r="I12" s="1">
         <v>21.0</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>331687.8571</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
         <v>1.5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1">
         <v>1.0</v>
@@ -1161,33 +1189,35 @@
       <c r="G13" s="1">
         <v>0.0</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>1.0215165E7</v>
       </c>
       <c r="I13" s="1">
         <v>21.0</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>486436.4286</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="7">
+        <v>43</v>
+      </c>
+      <c r="D14" s="6">
         <v>44414.0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -1195,33 +1225,35 @@
       <c r="G14" s="1">
         <v>0.0</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>1.261939E7</v>
       </c>
       <c r="I14" s="1">
         <v>21.0</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>600923.3333</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1">
         <v>1.6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6">
         <v>44445.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1">
         <v>1.0</v>
@@ -1229,33 +1261,35 @@
       <c r="G15" s="1">
         <v>0.0</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>7006180.0</v>
       </c>
       <c r="I15" s="1">
         <v>21.0</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>333627.619</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
         <v>1.6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1">
         <v>0.0</v>
@@ -1263,33 +1297,35 @@
       <c r="G16" s="1">
         <v>0.0</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>9807112.0</v>
       </c>
       <c r="I16" s="1">
         <v>21.0</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>467005.3333</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
         <v>2.0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="7">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6">
         <v>44477.0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F17" s="1">
         <v>0.0</v>
@@ -1297,33 +1333,35 @@
       <c r="G17" s="1">
         <v>0.0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>1.6451006E7</v>
       </c>
       <c r="I17" s="1">
         <v>21.0</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>783381.2381</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
         <v>2.0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6">
         <v>44508.0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1">
         <v>0.0</v>
@@ -1331,33 +1369,35 @@
       <c r="G18" s="1">
         <v>0.0</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>8615144.0</v>
       </c>
       <c r="I18" s="1">
         <v>21.0</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>410244.9524</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
         <v>2.1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7">
+        <v>56</v>
+      </c>
+      <c r="C19" s="6">
         <v>44205.0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F19" s="1">
         <v>0.0</v>
@@ -1365,33 +1405,35 @@
       <c r="G19" s="1">
         <v>0.0</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>3.3020905E7</v>
       </c>
       <c r="I19" s="1">
         <v>20.0</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>1651045.25</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
         <v>2.1</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="6">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5">
         <v>44540.0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="1">
         <v>0.0</v>
@@ -1399,33 +1441,35 @@
       <c r="G20" s="1">
         <v>0.0</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>7020975.0</v>
       </c>
       <c r="I20" s="1">
         <v>22.0</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>319135.2273</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1">
         <v>2.2</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="7">
+        <v>62</v>
+      </c>
+      <c r="D21" s="6">
         <v>44238.0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" s="1">
         <v>1.0</v>
@@ -1433,33 +1477,35 @@
       <c r="G21" s="1">
         <v>0.0</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>7785438.0</v>
       </c>
       <c r="I21" s="1">
         <v>21.0</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>370735.1429</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
         <v>2.2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7">
+        <v>61</v>
+      </c>
+      <c r="C22" s="6">
         <v>44238.0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F22" s="1">
         <v>1.0</v>
@@ -1467,33 +1513,35 @@
       <c r="G22" s="1">
         <v>0.0</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2.5226952E7</v>
       </c>
       <c r="I22" s="1">
         <v>22.0</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>1146679.636</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
         <v>2.3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="1">
         <v>1.0</v>
@@ -1501,33 +1549,35 @@
       <c r="G23" s="1">
         <v>1.0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1.7026066E7</v>
       </c>
       <c r="I23" s="1">
         <v>21.0</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>810765.0476</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
         <v>2.3</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7">
+        <v>68</v>
+      </c>
+      <c r="D24" s="6">
         <v>44652.0</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="1">
         <v>0.0</v>
@@ -1535,33 +1585,35 @@
       <c r="G24" s="1">
         <v>0.0</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>1.3404072E7</v>
       </c>
       <c r="I24" s="1">
         <v>22.0</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>609276</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
         <v>2.4</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="7">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6">
         <v>44682.0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1">
         <v>1.0</v>
@@ -1569,33 +1621,35 @@
       <c r="G25" s="1">
         <v>1.0</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1.6994406E7</v>
       </c>
       <c r="I25" s="1">
         <v>21.0</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>809257.4286</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
         <v>2.4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" s="1">
         <v>1.0</v>
@@ -1603,33 +1657,35 @@
       <c r="G26" s="1">
         <v>1.0</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>2.6780298E7</v>
       </c>
       <c r="I26" s="1">
         <v>22.0</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>1217286.273</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
         <v>2.5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="7">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6">
         <v>44776.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1">
         <v>0.0</v>
@@ -1637,33 +1693,35 @@
       <c r="G27" s="1">
         <v>0.0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>1.5110264E7</v>
       </c>
       <c r="I27" s="1">
         <v>21.0</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>719536.381</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
         <v>2.5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="7">
+        <v>76</v>
+      </c>
+      <c r="C28" s="6">
         <v>44776.0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1">
         <v>1.0</v>
@@ -1671,67 +1729,71 @@
       <c r="G28" s="1">
         <v>1.0</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>3.3560259E7</v>
       </c>
       <c r="I28" s="1">
         <v>22.0</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>1525466.318</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
         <v>2.6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F29" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G29" s="1">
         <v>1.0</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>2.2767455E7</v>
       </c>
       <c r="I29" s="1">
         <v>21.0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>1084164.524</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
         <v>2.6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F30" s="1">
         <v>1.0</v>
@@ -1739,67 +1801,71 @@
       <c r="G30" s="1">
         <v>0.0</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>3.5939066E7</v>
       </c>
       <c r="I30" s="1">
         <v>43.0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>835792.2326</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
         <v>2.7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" s="1">
         <v>1.0</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>2.5612693E7</v>
       </c>
       <c r="I31" s="1">
         <v>22.0</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>1164213.318</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
         <v>2.7</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="7">
+        <v>88</v>
+      </c>
+      <c r="D32" s="6">
         <v>44902.0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F32" s="1">
         <v>1.0</v>
@@ -1807,33 +1873,35 @@
       <c r="G32" s="1">
         <v>0.0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>1.2586764E7</v>
       </c>
       <c r="I32" s="1">
         <v>22.0</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>572125.6364</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
         <v>2.8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="7">
+        <v>92</v>
+      </c>
+      <c r="D33" s="6">
         <v>44600.0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" s="1">
         <v>1.0</v>
@@ -1841,33 +1909,35 @@
       <c r="G33" s="1">
         <v>1.0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>2.4808479E7</v>
       </c>
       <c r="I33" s="1">
         <v>21.0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <f t="shared" si="1"/>
         <v>1181356.143</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1">
         <v>2.8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" s="7">
+        <v>91</v>
+      </c>
+      <c r="C34" s="6">
         <v>44600.0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F34" s="1">
         <v>1.0</v>
@@ -1875,67 +1945,71 @@
       <c r="G34" s="1">
         <v>1.0</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>1.4333266E7</v>
       </c>
       <c r="I34" s="1">
         <v>22.0</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="4">
         <f t="shared" si="1"/>
         <v>651512.0909</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
         <v>3.0</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="7">
+        <v>97</v>
+      </c>
+      <c r="D35" s="6">
         <v>44813.0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G35" s="1">
         <v>1.0</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <v>1.9068372E7</v>
       </c>
       <c r="I35" s="1">
         <v>17.0</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <f t="shared" si="1"/>
         <v>1121668.941</v>
       </c>
-      <c r="K35" s="3"/>
+      <c r="K35" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
         <v>3.0</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="7">
+        <v>96</v>
+      </c>
+      <c r="C36" s="6">
         <v>44813.0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1">
         <v>1.0</v>
@@ -1943,352 +2017,362 @@
       <c r="G36" s="1">
         <v>1.0</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>1.568184E7</v>
       </c>
       <c r="I36" s="1">
         <v>19.0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <f t="shared" si="1"/>
         <v>825360</v>
       </c>
-      <c r="K36" s="3"/>
+      <c r="K36" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
         <v>3.1</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G37" s="1">
         <v>1.0</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>1.9052023E7</v>
       </c>
       <c r="I37" s="1">
         <v>17.0</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <f t="shared" si="1"/>
         <v>1120707.235</v>
       </c>
-      <c r="K37" s="3"/>
+      <c r="K37" s="1">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
         <v>3.1</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>100</v>
+      <c r="B38" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="6">
+        <v>103</v>
+      </c>
+      <c r="D38" s="5">
         <v>44572.0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F38" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G38" s="1">
         <v>1.0</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="3">
         <v>1.573168E7</v>
       </c>
       <c r="I38" s="1">
         <v>17.0</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <f t="shared" si="1"/>
         <v>925392.9412</v>
       </c>
-      <c r="K38" s="3"/>
+      <c r="K38" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1">
         <v>3.2</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="10">
+      <c r="B39" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="9">
         <v>44603.0</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="9">
+      <c r="E39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G39" s="8">
         <v>1.0</v>
       </c>
-      <c r="G39" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H39" s="11">
+      <c r="H39" s="10">
         <v>3.401729E7</v>
       </c>
-      <c r="I39" s="9">
+      <c r="I39" s="8">
         <v>17.0</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <f t="shared" si="1"/>
         <v>2001017.059</v>
       </c>
-      <c r="K39" s="3"/>
+      <c r="K39" s="1">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
         <v>3.2</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="10">
+      <c r="C40" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="9">
         <v>44724.0</v>
       </c>
-      <c r="E40" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="9">
+      <c r="E40" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F40" s="8">
         <v>1.0</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="8">
         <v>1.0</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="10">
         <v>1.4759312E7</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I40" s="8">
         <v>19.0</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" s="4">
         <f t="shared" si="1"/>
         <v>776805.8947</v>
       </c>
-      <c r="K40" s="3"/>
+      <c r="K40" s="1">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="3"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H42" s="15">
         <f>AVERAGE(H2:H40)</f>
         <v>17545934.38</v>
       </c>
-      <c r="I42" s="3"/>
-      <c r="J42" s="5">
+      <c r="I42" s="14"/>
+      <c r="J42" s="4">
         <f>AVERAGE(J2:J39)</f>
         <v>851205.5551</v>
       </c>
-      <c r="K42" s="3"/>
+      <c r="K42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
       <c r="G43" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H43" s="15">
         <f>MIN(H2:H40)</f>
         <v>6965445</v>
       </c>
-      <c r="I43" s="3"/>
-      <c r="J43" s="5">
+      <c r="I43" s="14"/>
+      <c r="J43" s="4">
         <f>MIN(J2:J39)</f>
         <v>319135.2273</v>
       </c>
-      <c r="K43" s="3"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H44" s="15">
         <f>MAX(H2:H40)</f>
         <v>35939066</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="5">
+      <c r="I44" s="14"/>
+      <c r="J44" s="4">
         <f>MAX(J2:J39)</f>
         <v>2001017.059</v>
       </c>
-      <c r="K44" s="3"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="15"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="3"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="14"/>
     </row>
     <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
       <c r="G46" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H46" s="15">
         <f>QUARTILE(H2:H40,1)</f>
         <v>12534199</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="5">
+      <c r="I46" s="14"/>
+      <c r="J46" s="4">
         <f>QUARTILE(J2:J40,1)</f>
         <v>605099.6667</v>
       </c>
-      <c r="K46" s="3"/>
+      <c r="K46" s="14"/>
     </row>
     <row r="47">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H47" s="16">
         <f>QUARTILE(H2:H40,2)</f>
         <v>15681840</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="17">
         <f>QUARTILE(J2:J40,2)</f>
         <v>791152.8095</v>
       </c>
-      <c r="K47" s="3"/>
+      <c r="K47" s="14"/>
     </row>
     <row r="48">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H48" s="18">
         <f>QUARTILE(H2:H40,3)</f>
         <v>22758767.5</v>
       </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="5">
+      <c r="I48" s="14"/>
+      <c r="J48" s="4">
         <f>QUARTILE(J2:J40,3)</f>
         <v>1102435.88</v>
       </c>
-      <c r="K48" s="3"/>
+      <c r="K48" s="14"/>
     </row>
     <row r="49">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H49" s="18">
         <f>QUARTILE(H2:H40,1)</f>
         <v>12534199</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="17">
         <f>QUARTILE(J2:J40,4)</f>
         <v>2001017.059</v>
       </c>
-      <c r="K49" s="3"/>
+      <c r="K49" s="14"/>
     </row>
     <row r="50">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="15"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="3"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="14"/>
     </row>
     <row r="51">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="15"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="14"/>
     </row>
     <row r="52">
       <c r="H52" s="20"/>
